--- a/Document/登录流程.xlsx
+++ b/Document/登录流程.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C45F8D6-C34E-4097-ABEC-81EEFB5228EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD81BFEE-7E63-4D33-8DB0-F8E9318B17FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,88 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+  <si>
+    <t>AccountCenter  :  C2A_ServerList  -&gt;  获取服务器列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>session.AddComponent&lt;AccountCheckOutTimeComponent, long&gt;(account.Id); 保留600s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;TokenComponent&gt;().Add(account.Id, Token);   token保留600s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;AccountSessionsComponent&gt;().Add(account.Id, session.InstanceId)  用来踢同账号的session</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Account:：           C2A_LoginAccount-&gt; 验证账号 注册账号 排队处理  踢出同号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Real:                     C2A_GetRealmKey</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Gate:                    C2G_LoginGameGate-&gt; L2G_AddLoginRecord  </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>player = scene.GetComponent&lt;PlayerComponent&gt;().AddChildWithId&lt;Player, long, long&gt;(request.RoleId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>session.AddComponent&lt;SessionPlayerComponent&gt;().PlayerId = player.Id;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>player.ClientSession = session;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gate做了一个accountid-unitid的记录， 并且记录player-session的关系</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                             C2G_EnterGame-&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player player = Game.EventSystem.Get(sessionPlayerComponent.PlayerInstanceId) as Player;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player player = scene.GetComponent&lt;PlayerComponent&gt;().Get(request.Account);</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>//判断是否重连</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>//通知其他服务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下线</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>player.AddComponent&lt;PlayerOfflineOutTimeComponent&gt;()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DisconnectHelper.KickPlayer（true / false）  异常不通知其他服务器。可能要改一下</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -67,12 +148,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -94,15 +178,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1590675</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>333374</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:colOff>246530</xdr:colOff>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -118,8 +202,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1590675" y="933450"/>
-          <a:ext cx="4171949" cy="3238500"/>
+          <a:off x="4828054" y="925046"/>
+          <a:ext cx="4058211" cy="3208244"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -147,8 +231,16 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>账号中心服</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>AccountServer:</a:t>
+            <a:t>AccountCenter:</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -162,35 +254,161 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>Server+FangChenMiComponent</a:t>
-          </a:r>
+            <a:t>Server+</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>AccountCenterComponent</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1200151</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>166408</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1423147</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>149038</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矩形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12D02253-0C1A-440D-9A60-DAD2930AE8F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9839886" y="883584"/>
+          <a:ext cx="4089026" cy="3209925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>账号服</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>Server+AccountSessionsComponent</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>Account:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Server+TokenComponent                       //token</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>验证</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Server+</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>AccountSessionsComponent    //</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>  </a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -486,27 +704,126 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A6"/>
+  <dimension ref="A6:A31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="86.625" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
     <col min="3" max="3" width="12.625" style="2" customWidth="1"/>
     <col min="4" max="4" width="15.125" style="2" customWidth="1"/>
     <col min="5" max="5" width="9.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="28.75" style="2" customWidth="1"/>
+    <col min="6" max="6" width="22.375" style="2" customWidth="1"/>
     <col min="7" max="7" width="7.875" style="2" customWidth="1"/>
     <col min="8" max="8" width="20.5" style="2" customWidth="1"/>
     <col min="9" max="9" width="19.5" style="2" customWidth="1"/>
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="6" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Document/登录流程.xlsx
+++ b/Document/登录流程.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD81BFEE-7E63-4D33-8DB0-F8E9318B17FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4157A00F-5511-4374-881D-014AA44C02EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,16 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>AccountCenter  :  C2A_ServerList  -&gt;  获取服务器列表</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>session.AddComponent&lt;AccountCheckOutTimeComponent, long&gt;(account.Id); 保留600s</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;TokenComponent&gt;().Add(account.Id, Token);   token保留600s</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -42,10 +38,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Real:                     C2A_GetRealmKey</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">Gate:                    C2G_LoginGameGate-&gt; L2G_AddLoginRecord  </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -99,6 +91,26 @@
   </si>
   <si>
     <t>DisconnectHelper.KickPlayer（true / false）  异常不通知其他服务器。可能要改一下</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;TokenComponent&gt;().Remove(account.Id, Token);   token保留600s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>session.AddComponent&lt;AccountCheckOutTimeComponent, long&gt;(account.Id); 最多保留600s （下线手动移除）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Real:                    R2A_GetRealmKey【TokenComponent&gt;().Remove TokenComponent&gt;().Add】</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Account:              C2A_GetRealmKey    -&gt;  R2A_GetRealmKey   返回Realm服务器地址</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                            C2R_LoginRealm -&gt;G2R_GetLoginGateKey  连接Realm，获取分配的Gate地址和key</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -148,7 +160,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -156,6 +168,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -186,8 +201,8 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>246530</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -202,8 +217,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4828054" y="925046"/>
-          <a:ext cx="4058211" cy="3208244"/>
+          <a:off x="6609790" y="925046"/>
+          <a:ext cx="4058211" cy="2481542"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -295,16 +310,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1200151</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>166408</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>6590182</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>54349</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1423147</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>149038</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>257736</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>89648</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -319,8 +334,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9839886" y="883584"/>
-          <a:ext cx="4089026" cy="3209925"/>
+          <a:off x="6590182" y="8839761"/>
+          <a:ext cx="4089025" cy="2545416"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -401,6 +416,375 @@
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>  </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>6577854</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>245408</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>56030</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="矩形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A6E8089-1978-499D-9BCA-009E6D7DBD8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6577854" y="6129618"/>
+          <a:ext cx="4089025" cy="2532530"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Realm</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Server+TokenComponent                       //token</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>验证</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>  </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>6589060</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>156884</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>256614</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="矩形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB0D9F1B-F95E-4D0A-A345-5446A09A7AA3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6589060" y="3742766"/>
+          <a:ext cx="4089025" cy="2207558"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Gate</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Server+</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>PlayerComponent</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>                      //Accountid-Player</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Server+</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>GateSessionKeyComponent</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>      //</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>C2G_LoginGameGate</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>验证</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>  </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>6577854</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>67234</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>245408</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>123263</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="矩形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F214CA3-3BCE-4062-A7E8-D0EEAA1422FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6577854" y="11542058"/>
+          <a:ext cx="4089025" cy="2207558"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>LoginCenter</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Server+</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>LoginInfoRecordComponent</a:t>
+          </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
         <a:p>
@@ -704,10 +1088,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A6:A31"/>
+  <dimension ref="A6:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -717,76 +1101,74 @@
     <col min="3" max="3" width="12.625" style="2" customWidth="1"/>
     <col min="4" max="4" width="15.125" style="2" customWidth="1"/>
     <col min="5" max="5" width="9.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="22.375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="7.875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="8.375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="102.625" style="2" customWidth="1"/>
     <col min="8" max="8" width="20.5" style="2" customWidth="1"/>
     <col min="9" max="9" width="19.5" style="2" customWidth="1"/>
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="G7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>6</v>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
@@ -796,32 +1178,52 @@
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
-        <v>17</v>
+      <c r="A29" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
